--- a/4_Paddle_Controller/2_Software/Paddle_Controller_SW_Calcs.xlsx
+++ b/4_Paddle_Controller/2_Software/Paddle_Controller_SW_Calcs.xlsx
@@ -38,9 +38,6 @@
     <t>Pulley pitch diameter (m)</t>
   </si>
   <si>
-    <t>Pulley pitch diameter (um)</t>
-  </si>
-  <si>
     <t>Encoder ticks per revolution</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>HCS12 MAX_LONG</t>
+  </si>
+  <si>
+    <t>Pulley circumference (m)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,16 +506,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9">
-        <f>B5*10000</f>
-        <v>190.9859317102744</v>
+        <f>B5*PI()</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="11">
         <v>374</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8">
         <f>32*25.4/1000</f>
@@ -532,16 +532,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9">
-        <f>B9/B5*B8</f>
-        <v>15916.732571755521</v>
+        <f>B9/B6*B8</f>
+        <v>5066.4533333333338</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <f>2^8</f>
@@ -550,7 +550,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <f>2^16</f>
@@ -559,7 +559,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <f>2^32</f>
